--- a/mf-intelligence/data/processed/quant/quant_Consumption_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Consumption_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>9.802079000000001</v>
+      </c>
+      <c r="E2" t="n">
         <v>10.033282</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.688181</v>
       </c>
-      <c r="F2" t="n">
-        <v>9.804278</v>
-      </c>
       <c r="G2" t="n">
-        <v>0.3451009999999997</v>
+        <v>-0.2312029999999989</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2290039999999998</v>
+        <v>0.1138980000000007</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE768C01028</t>
+          <t>INE180C01042</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zydus Wellness Ltd</t>
+          <t>Capri Global Capital Limited</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,30 +524,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.965963</v>
+        <v>9.526871999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>9.087308</v>
+        <v>9.512081999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>10.230047</v>
+        <v>9.425583</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8786550000000002</v>
+        <v>0.01478999999999964</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2640840000000004</v>
+        <v>0.1012889999999995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE180C01042</t>
+          <t>INE768C01028</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Capri Global Capital Limited</t>
+          <t>Zydus Wellness Ltd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9.512081999999999</v>
+        <v>8.403816000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>9.425583</v>
+        <v>9.965963</v>
       </c>
       <c r="F4" t="n">
-        <v>9.627039</v>
+        <v>9.087308</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08649899999999988</v>
+        <v>-1.562147</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1149570000000004</v>
+        <v>-0.6834919999999993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE484J01027</t>
+          <t>INE016A01026</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Godrej Properties Limited</t>
+          <t>Dabur India Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.542531</v>
+        <v>7.315448</v>
       </c>
       <c r="E5" t="n">
-        <v>3.848956</v>
+        <v>3.949244</v>
       </c>
       <c r="F5" t="n">
-        <v>3.941633</v>
+        <v>3.907306</v>
       </c>
       <c r="G5" t="n">
-        <v>2.693575</v>
+        <v>3.366204</v>
       </c>
       <c r="H5" t="n">
-        <v>2.600898</v>
+        <v>3.408142</v>
       </c>
     </row>
     <row r="6">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>7.003441</v>
+      </c>
+      <c r="E6" t="n">
         <v>6.379967</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5.966638</v>
       </c>
-      <c r="F6" t="n">
-        <v>5.061371</v>
-      </c>
       <c r="G6" t="n">
-        <v>0.4133290000000001</v>
+        <v>0.6234739999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1.318595999999999</v>
+        <v>1.036803</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE196A01026</t>
+          <t>INE804L01022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marico Limited</t>
+          <t>Medplus Health Services Limited</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.171663</v>
+        <v>5.84704</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>5.528791</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5.334075</v>
       </c>
       <c r="G7" t="n">
-        <v>6.171663</v>
+        <v>0.3182489999999998</v>
       </c>
       <c r="H7" t="n">
-        <v>6.171663</v>
+        <v>0.5129649999999994</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE04TZ01018</t>
+          <t>INE406A01037</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ETHOS LIMITED</t>
+          <t>Aurobindo Pharma Limited</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.71073</v>
+        <v>5.578617</v>
       </c>
       <c r="E8" t="n">
-        <v>2.769367</v>
+        <v>3.282408</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.277698</v>
       </c>
       <c r="G8" t="n">
-        <v>2.941363</v>
+        <v>2.296209</v>
       </c>
       <c r="H8" t="n">
-        <v>5.71073</v>
+        <v>2.300919</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE804L01022</t>
+          <t>INE04TZ01018</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Medplus Health Services Limited</t>
+          <t>ETHOS LIMITED</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5.528791</v>
+        <v>5.232357</v>
       </c>
       <c r="E9" t="n">
-        <v>5.334075</v>
+        <v>5.71073</v>
       </c>
       <c r="F9" t="n">
-        <v>6.885661</v>
+        <v>2.769367</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1947159999999997</v>
+        <v>-0.4783729999999995</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.35687</v>
+        <v>2.46299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE854D01024</t>
+          <t>INE192A01025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>United Spirits Limited</t>
+          <t>Tata Consumer Products Ltd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5.232451</v>
+        <v>3.671604</v>
       </c>
       <c r="E10" t="n">
-        <v>5.066381</v>
+        <v>0.493396</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1660700000000004</v>
+        <v>3.178208</v>
       </c>
       <c r="H10" t="n">
-        <v>5.232451</v>
+        <v>3.671604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE016A01026</t>
+          <t>INE179A01014</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dabur India Limited</t>
+          <t>Procter &amp; Gamble Hygiene &amp; Health Care Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.949244</v>
+        <v>3.426913</v>
       </c>
       <c r="E11" t="n">
-        <v>3.907306</v>
+        <v>3.535301</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3.348036</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04193800000000003</v>
+        <v>-0.1083880000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>3.949244</v>
+        <v>0.07887699999999986</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE179A01014</t>
+          <t>INE01A001028</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Procter &amp; Gamble Hygiene &amp; Health Care Limited</t>
+          <t>Stanley Lifestyles Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.535301</v>
+        <v>1.90172</v>
       </c>
       <c r="E12" t="n">
-        <v>3.348036</v>
+        <v>3.168372</v>
       </c>
       <c r="F12" t="n">
-        <v>3.316614</v>
+        <v>4.822661</v>
       </c>
       <c r="G12" t="n">
-        <v>0.187265</v>
+        <v>-1.266652</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2186870000000001</v>
+        <v>-2.920941</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE406A01037</t>
+          <t>INE018E01016</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Limited</t>
+          <t>SBI Cards &amp; Payment Services Ltd</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.282408</v>
+        <v>0.990131</v>
       </c>
       <c r="E13" t="n">
-        <v>3.277698</v>
+        <v>1.059535</v>
       </c>
       <c r="F13" t="n">
-        <v>2.880193</v>
+        <v>1.04217</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004710000000000214</v>
+        <v>-0.06940399999999991</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4022150000000004</v>
+        <v>-0.05203900000000006</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE01A001028</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Stanley Lifestyles Limited</t>
+          <t>ICICI Bank Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3.168372</v>
+        <v>0.418628</v>
       </c>
       <c r="E14" t="n">
-        <v>4.822661</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.623394</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.654289</v>
+        <v>0.418628</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.455022</v>
+        <v>0.418628</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE018E01016</t>
+          <t>INE196A01026</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SBI Cards &amp; Payment Services Ltd</t>
+          <t>Marico Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.059535</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.04217</v>
+        <v>6.171663</v>
       </c>
       <c r="F15" t="n">
-        <v>0.984699</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01736499999999985</v>
+        <v>-6.171663</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0748359999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE192A01025</t>
+          <t>INE484J01027</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tata Consumer Products Ltd</t>
+          <t>Godrej Properties Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.493396</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>6.542531</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3.848956</v>
       </c>
       <c r="G16" t="n">
-        <v>0.493396</v>
+        <v>-6.542531</v>
       </c>
       <c r="H16" t="n">
-        <v>0.493396</v>
+        <v>-3.848956</v>
       </c>
     </row>
     <row r="17">
@@ -972,30 +972,30 @@
         </is>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.272518</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.272518</v>
+        <v>-0.272518</v>
       </c>
       <c r="H17" t="n">
-        <v>0.272518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE916U01025</t>
+          <t>INE686F01025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sheela Foam Limited</t>
+          <t>UNITED BREWERIES LIMITED</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1010,24 +1010,24 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2.955781</v>
+        <v>2.664613</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.955781</v>
+        <v>-2.664613</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE00H001014</t>
+          <t>INE854D01024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SWIGGY LIMITED</t>
+          <t>United Spirits Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1039,27 +1039,27 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>5.232451</v>
       </c>
       <c r="F19" t="n">
-        <v>2.641418</v>
+        <v>5.066381</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-5.232451</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.641418</v>
+        <v>-5.066381</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE686F01025</t>
+          <t>INE202B01038</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UNITED BREWERIES LIMITED</t>
+          <t>Piramal Finance Ltd</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1071,112 +1071,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2.664613</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.056928</v>
+        <v>3.103411</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.664613</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-5.056928</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>INE202B01038</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Piramal Finance Ltd</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>quant Consumption Fund</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3.103411</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2.132166</v>
-      </c>
-      <c r="G21" t="n">
         <v>-3.103411</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-2.132166</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>INE14LE01019</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Aditya Birla Lifestyle Brands Limited</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>quant Consumption Fund</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5.125438</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-5.125438</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>INE364U01010</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Adani Green Energy Limited</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>quant Consumption Fund</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3.123305</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-3.123305</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Consumption_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Consumption_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>9.802079000000001</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>10.033282</v>
       </c>
-      <c r="F2" t="n">
-        <v>9.688181</v>
-      </c>
       <c r="G2" t="n">
+        <v>9.804278</v>
+      </c>
+      <c r="H2" t="n">
         <v>-0.2312029999999989</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.1138980000000007</v>
+      <c r="I2" t="n">
+        <v>-0.002198999999999174</v>
       </c>
     </row>
     <row r="3">
@@ -523,20 +533,25 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>9.526871999999999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.512081999999999</v>
       </c>
-      <c r="F3" t="n">
-        <v>9.425583</v>
-      </c>
       <c r="G3" t="n">
+        <v>9.627039</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.01478999999999964</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.1012889999999995</v>
+      <c r="I3" t="n">
+        <v>-0.1001670000000008</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>8.403816000000001</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>9.965963</v>
       </c>
-      <c r="F4" t="n">
-        <v>9.087308</v>
-      </c>
       <c r="G4" t="n">
+        <v>10.230047</v>
+      </c>
+      <c r="H4" t="n">
         <v>-1.562147</v>
       </c>
-      <c r="H4" t="n">
-        <v>-0.6834919999999993</v>
+      <c r="I4" t="n">
+        <v>-1.826231</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>7.315448</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>3.949244</v>
       </c>
-      <c r="F5" t="n">
-        <v>3.907306</v>
-      </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.366204</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.408142</v>
+      <c r="I5" t="n">
+        <v>7.315448</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>7.003441</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>6.379967</v>
       </c>
-      <c r="F6" t="n">
-        <v>5.966638</v>
-      </c>
       <c r="G6" t="n">
+        <v>5.061371</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.6234739999999999</v>
       </c>
-      <c r="H6" t="n">
-        <v>1.036803</v>
+      <c r="I6" t="n">
+        <v>1.942069999999999</v>
       </c>
     </row>
     <row r="7">
@@ -651,20 +681,25 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>5.84704</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.528791</v>
       </c>
-      <c r="F7" t="n">
-        <v>5.334075</v>
-      </c>
       <c r="G7" t="n">
+        <v>6.885661</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.3182489999999998</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.5129649999999994</v>
+      <c r="I7" t="n">
+        <v>-1.038621</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>5.578617</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>3.282408</v>
       </c>
-      <c r="F8" t="n">
-        <v>3.277698</v>
-      </c>
       <c r="G8" t="n">
+        <v>2.880193</v>
+      </c>
+      <c r="H8" t="n">
         <v>2.296209</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.300919</v>
+      <c r="I8" t="n">
+        <v>2.698424000000001</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>5.232357</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>5.71073</v>
       </c>
-      <c r="F9" t="n">
-        <v>2.769367</v>
-      </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>-0.4783729999999995</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.46299</v>
+      <c r="I9" t="n">
+        <v>5.232357</v>
       </c>
     </row>
     <row r="10">
@@ -747,19 +792,24 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>3.671604</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.493396</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.178208</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>3.671604</v>
       </c>
     </row>
@@ -779,20 +829,25 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>3.426913</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3.535301</v>
       </c>
-      <c r="F11" t="n">
-        <v>3.348036</v>
-      </c>
       <c r="G11" t="n">
+        <v>3.316614</v>
+      </c>
+      <c r="H11" t="n">
         <v>-0.1083880000000002</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.07887699999999986</v>
+      <c r="I11" t="n">
+        <v>0.1102989999999999</v>
       </c>
     </row>
     <row r="12">
@@ -811,20 +866,25 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>1.90172</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>3.168372</v>
       </c>
-      <c r="F12" t="n">
-        <v>4.822661</v>
-      </c>
       <c r="G12" t="n">
+        <v>5.623394</v>
+      </c>
+      <c r="H12" t="n">
         <v>-1.266652</v>
       </c>
-      <c r="H12" t="n">
-        <v>-2.920941</v>
+      <c r="I12" t="n">
+        <v>-3.721674</v>
       </c>
     </row>
     <row r="13">
@@ -843,20 +903,25 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>0.990131</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.059535</v>
       </c>
-      <c r="F13" t="n">
-        <v>1.04217</v>
-      </c>
       <c r="G13" t="n">
+        <v>0.984699</v>
+      </c>
+      <c r="H13" t="n">
         <v>-0.06940399999999991</v>
       </c>
-      <c r="H13" t="n">
-        <v>-0.05203900000000006</v>
+      <c r="I13" t="n">
+        <v>0.005431999999999992</v>
       </c>
     </row>
     <row r="14">
@@ -875,31 +940,36 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>0.418628</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.418628</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0.418628</v>
       </c>
+      <c r="I14" t="n">
+        <v>0.418628</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE196A01026</t>
+          <t>INE686F01025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Marico Limited</t>
+          <t>UNITED BREWERIES LIMITED</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -907,31 +977,36 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>6.171663</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.171663</v>
+        <v>5.056928</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-5.056928</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE484J01027</t>
+          <t>INE916U01025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Godrej Properties Limited</t>
+          <t>Sheela Foam Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -939,31 +1014,36 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>6.542531</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3.848956</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.542531</v>
+        <v>2.955781</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.848956</v>
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-2.955781</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE669C01036</t>
+          <t>INE854D01024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tech Mahindra Limited</t>
+          <t>United Spirits Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -971,31 +1051,36 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>0.272518</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.232451</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.272518</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
+        <v>-5.232451</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE686F01025</t>
+          <t>INE00H001014</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UNITED BREWERIES LIMITED</t>
+          <t>SWIGGY LIMITED</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1003,31 +1088,36 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2.664613</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2.641418</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.664613</v>
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-2.641418</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE854D01024</t>
+          <t>INE669C01036</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>United Spirits Limited</t>
+          <t>Tech Mahindra Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1035,52 +1125,210 @@
           <t>quant Consumption Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>5.232451</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>5.066381</v>
+        <v>0.272518</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.232451</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.066381</v>
+        <v>-0.272518</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>INE484J01027</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Godrej Properties Limited</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6.542531</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.941633</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-6.542531</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-3.941633</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>INE364U01010</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Adani Green Energy Limited</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.123305</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-3.123305</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>INE196A01026</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Marico Limited</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.171663</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-6.171663</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>INE14LE01019</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Aditya Birla Lifestyle Brands Limited</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.125438</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-5.125438</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>INE202B01038</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Piramal Finance Ltd</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>quant Consumption Fund</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3.103411</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-3.103411</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.132166</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-2.132166</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Consumption_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Consumption_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.802079000000001</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>10.033282</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>9.804278</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>-0.2312029999999989</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>-0.002198999999999174</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.526871999999999</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>9.512081999999999</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>9.627039</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.01478999999999964</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>-0.1001670000000008</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.403816000000001</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>9.965963</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>10.230047</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>-1.562147</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>-1.826231</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Personal Products</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>7.315448</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>3.949244</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>3.366204</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>7.315448</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7.003441</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>6.379967</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>5.061371</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.6234739999999999</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>1.942069999999999</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.84704</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>5.528791</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>6.885661</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.3182489999999998</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>-1.038621</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.578617</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>3.282408</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>2.880193</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>2.296209</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>2.698424000000001</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>5.232357</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>5.71073</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>-0.4783729999999995</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>5.232357</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.671604</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.493396</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.178208</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>3.671604</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Personal Products</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3.426913</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>3.535301</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>3.316614</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>-0.1083880000000002</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.1102989999999999</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>1.90172</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.168372</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>5.623394</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>-1.266652</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>-3.721674</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.990131</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>1.059535</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.984699</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>-0.06940399999999991</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.005431999999999992</v>
       </c>
     </row>
@@ -937,29 +1002,34 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.418628</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.418628</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.418628</v>
       </c>
+      <c r="J14" t="n">
+        <v>0.418628</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>5.056928</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>-5.056928</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>2.955781</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>-2.955781</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>5.232451</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>-5.232451</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.641418</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>-2.641418</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.272518</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>-0.272518</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>6.542531</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>3.941633</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>-6.542531</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>-3.941633</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>3.123305</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>-3.123305</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>6.171663</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>-6.171663</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>5.125438</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>-5.125438</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant Consumption Fund</t>
+          <t>N.A.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant Consumption Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>2.132166</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>-2.132166</v>
       </c>
     </row>
